--- a/spliced/falling/2023-03-25_17-59-36/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-36/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2611449062824249</v>
+        <v>0.0265726372599601</v>
       </c>
       <c r="B2" t="n">
-        <v>0.041233405470848</v>
+        <v>-0.0716239511966705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2226603776216507</v>
+        <v>-0.0607810914516449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2386955916881561</v>
+        <v>0.2611449062824249</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3608686327934265</v>
+        <v>0.041233405470848</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0772744566202163</v>
+        <v>0.2226603776216507</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5322163701057434</v>
+        <v>0.2386955916881561</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0166460778564214</v>
+        <v>-0.3608686327934265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.039248090237379</v>
+        <v>-0.0772744566202163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7162395119667053</v>
+        <v>0.5322163701057434</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1989893466234207</v>
+        <v>-0.0166460778564214</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0884227454662323</v>
+        <v>0.039248090237379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.458746194839478</v>
+        <v>0.7162395119667053</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5387831330299377</v>
+        <v>-0.1989893466234207</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3553708493709564</v>
+        <v>-0.0884227454662323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.215621829032898</v>
+        <v>1.458746194839478</v>
       </c>
       <c r="B7" t="n">
-        <v>3.648850917816162</v>
+        <v>0.5387831330299377</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.939317226409912</v>
+        <v>-0.3553708493709564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.697149932384491</v>
+        <v>1.215621829032898</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.561955213546753</v>
+        <v>3.648850917816162</v>
       </c>
       <c r="C8" t="n">
-        <v>2.918103218078613</v>
+        <v>-3.939317226409912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.915978789329529</v>
+        <v>0.697149932384491</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1592831164598465</v>
+        <v>-3.561955213546753</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5018258094787598</v>
+        <v>2.918103218078613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.59848165512085</v>
+        <v>-1.915978789329529</v>
       </c>
       <c r="B10" t="n">
-        <v>1.512196898460388</v>
+        <v>0.1592831164598465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6305656433105469</v>
+        <v>-0.5018258094787598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.159435823559761</v>
+        <v>1.59848165512085</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8156577944755554</v>
+        <v>1.512196898460388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9199630618095398</v>
+        <v>0.6305656433105469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0126754539087414</v>
+        <v>-0.159435823559761</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1342376321554184</v>
+        <v>-0.8156577944755554</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.328173756599426</v>
+        <v>0.9199630618095398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0963639914989471</v>
+        <v>0.0126754539087414</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2640464901924133</v>
+        <v>0.1342376321554184</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8072584271430969</v>
+        <v>-1.328173756599426</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.544267296791077</v>
+        <v>-0.0963639914989471</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0639881342649459</v>
+        <v>-0.2640464901924133</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7490735054016113</v>
+        <v>-0.8072584271430969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.995391368865967</v>
+        <v>1.544267296791077</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8813258409500122</v>
+        <v>0.0639881342649459</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5760459303855896</v>
+        <v>0.7490735054016113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.253037333488464</v>
+        <v>-1.995391368865967</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.7693848013877869</v>
+        <v>0.8813258409500122</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4392121136188507</v>
+        <v>-0.5760459303855896</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1798998117446899</v>
+        <v>-1.253037333488464</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3457497358322143</v>
+        <v>-0.7693848013877869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0044287731871008</v>
+        <v>-0.4392121136188507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0542142912745475</v>
+        <v>-0.1798998117446899</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2333505302667617</v>
+        <v>0.3457497358322143</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1989893466234207</v>
+        <v>0.0044287731871008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0705549344420433</v>
+        <v>-0.0542142912745475</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.119118720293045</v>
+        <v>0.2333505302667617</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1950187236070633</v>
+        <v>0.1989893466234207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0215329993516206</v>
+        <v>-0.0705549344420433</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1395827084779739</v>
+        <v>-0.119118720293045</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0713185146450996</v>
+        <v>-0.1950187236070633</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0612392425537109</v>
+        <v>0.0215329993516206</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2464841306209564</v>
+        <v>0.1395827084779739</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1278235465288162</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0074830991216003</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0374154970049858</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0755945742130279</v>
+        <v>-0.0713185146450996</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-36/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-36/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0265726372599601</v>
+        <v>0.299476683139801</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0716239511966705</v>
+        <v>0.1832595765590667</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0607810914516449</v>
+        <v>0.4633412957191467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2611449062824249</v>
+        <v>-0.08216137439012521</v>
       </c>
       <c r="B3" t="n">
-        <v>0.041233405470848</v>
+        <v>-0.3101668357849121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2226603776216507</v>
+        <v>0.4265366494655609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2386955916881561</v>
+        <v>-0.1818851232528686</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3608686327934265</v>
+        <v>0.0901026204228401</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0772744566202163</v>
+        <v>0.0786489024758338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5322163701057434</v>
+        <v>0.0897971913218498</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0166460778564214</v>
+        <v>0.1569923609495163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.039248090237379</v>
+        <v>0.2553416788578033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7162395119667053</v>
+        <v>0.1241583600640297</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1989893466234207</v>
+        <v>0.194713294506073</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0884227454662323</v>
+        <v>0.1459967941045761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.458746194839478</v>
+        <v>0.0265726372599601</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5387831330299377</v>
+        <v>-0.0716239511966705</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3553708493709564</v>
+        <v>-0.0607810914516449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.215621829032898</v>
+        <v>0.2611449062824249</v>
       </c>
       <c r="B8" t="n">
-        <v>3.648850917816162</v>
+        <v>0.041233405470848</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.939317226409912</v>
+        <v>0.2226603776216507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.697149932384491</v>
+        <v>0.2386955916881561</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.561955213546753</v>
+        <v>-0.3608686327934265</v>
       </c>
       <c r="C9" t="n">
-        <v>2.918103218078613</v>
+        <v>-0.0772744566202163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.915978789329529</v>
+        <v>0.5322163701057434</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1592831164598465</v>
+        <v>-0.0166460778564214</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5018258094787598</v>
+        <v>0.039248090237379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.59848165512085</v>
+        <v>0.7162395119667053</v>
       </c>
       <c r="B11" t="n">
-        <v>1.512196898460388</v>
+        <v>-0.1989893466234207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6305656433105469</v>
+        <v>-0.0884227454662323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.159435823559761</v>
+        <v>1.458746194839478</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8156577944755554</v>
+        <v>0.5387831330299377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9199630618095398</v>
+        <v>-0.3553708493709564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0126754539087414</v>
+        <v>1.215621829032898</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1342376321554184</v>
+        <v>3.648850917816162</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.328173756599426</v>
+        <v>-3.939317226409912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0963639914989471</v>
+        <v>0.697149932384491</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2640464901924133</v>
+        <v>-3.561955213546753</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8072584271430969</v>
+        <v>2.918103218078613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.544267296791077</v>
+        <v>-1.915978789329529</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0639881342649459</v>
+        <v>0.1592831164598465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7490735054016113</v>
+        <v>-0.5018258094787598</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.995391368865967</v>
+        <v>1.59848165512085</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8813258409500122</v>
+        <v>1.512196898460388</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5760459303855896</v>
+        <v>0.6305656433105469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.253037333488464</v>
+        <v>-0.159435823559761</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7693848013877869</v>
+        <v>-0.8156577944755554</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4392121136188507</v>
+        <v>0.9199630618095398</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1798998117446899</v>
+        <v>0.0126754539087414</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3457497358322143</v>
+        <v>0.1342376321554184</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0044287731871008</v>
+        <v>-1.328173756599426</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0542142912745475</v>
+        <v>-0.0963639914989471</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2333505302667617</v>
+        <v>-0.2640464901924133</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1989893466234207</v>
+        <v>-0.8072584271430969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0705549344420433</v>
+        <v>1.544267296791077</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.119118720293045</v>
+        <v>0.0639881342649459</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1950187236070633</v>
+        <v>0.7490735054016113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.995391368865967</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8813258409500122</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.5760459303855896</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.253037333488464</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.7693848013877869</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4392121136188507</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.1798998117446899</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3457497358322143</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0044287731871008</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.0542142912745475</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2333505302667617</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1989893466234207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0705549344420433</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.119118720293045</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1950187236070633</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>0.0215329993516206</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>0.1395827084779739</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>-0.0713185146450996</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0612392425537109</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2464841306209564</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1278235465288162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0074830991216003</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0374154970049858</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0755945742130279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0713185146450996</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0108428578823804</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0226020142436027</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0126754539087414</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0655152946710586</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0435241498053073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0337503030896186</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0120645882561802</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0161879286170005</v>
       </c>
     </row>
   </sheetData>
